--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB19FD76-4671-40B6-9B58-85B0C48B9108}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EBD11-B171-44A0-8D8D-17A9D6964104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB v1" sheetId="1" r:id="rId1"/>
+    <sheet name="Speedcheck PCB v1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,62 +35,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>Testplan PCB</t>
   </si>
   <si>
-    <t>Voeding en Ground</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kortsluiting </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle Hitte  bij DAC </t>
-  </si>
-  <si>
-    <t>Controle Hitte bij ESP32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Controle Hitte bij Condensators </t>
-  </si>
-  <si>
-    <t>Controle Hitte bij ADC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aanwezig </t>
-  </si>
-  <si>
-    <t>Geen hitte aanwezig</t>
-  </si>
-  <si>
-    <t>Hitte aanwezig</t>
-  </si>
-  <si>
-    <t>Gelukt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mislukt </t>
-  </si>
-  <si>
-    <t>Commentaar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commentaar </t>
-  </si>
-  <si>
     <t>I2C</t>
   </si>
   <si>
-    <t>Kunnen uitlezen van een I2C sensor</t>
-  </si>
-  <si>
-    <t>Mislukt</t>
-  </si>
-  <si>
-    <t>String uitsturen van de ESP32(Master) naar een arduino(slave) en omgekeerd</t>
-  </si>
-  <si>
     <t>SPI</t>
   </si>
   <si>
@@ -99,55 +52,169 @@
     <t>UART</t>
   </si>
   <si>
-    <t>Kunnen uitlezen van een SPI sensor</t>
-  </si>
-  <si>
-    <t>ADC 24 bit</t>
-  </si>
-  <si>
-    <t>DAC</t>
-  </si>
-  <si>
-    <t>Nog te bepalen</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>Kunnen uitlezen van een analoge sensor</t>
-  </si>
-  <si>
-    <t>GPIO's ESP32</t>
-  </si>
-  <si>
-    <t>3,3 V nameten op de PCB waar het hoort</t>
-  </si>
-  <si>
-    <t>5 V nameten op de PCB waar het hoort</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niet aanwezig </t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Sensoren kunnen uitlezen op alle beschikbare  GPIO's</t>
-  </si>
-  <si>
-    <t>LED's kunnen aansturen op alle beschikbare  GPIO's</t>
-  </si>
-  <si>
-    <t>String uitsturen van de ESP32(Master) naar een arduino(slave)  en omgekeerd</t>
-  </si>
-  <si>
-    <t>Een UART module werkend krijgen</t>
-  </si>
-  <si>
-    <t>Alleen pin 33 werkt als uitgang , rest niet.</t>
+    <t>Volt and ground</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not present </t>
+  </si>
+  <si>
+    <t>Succes</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>GPIO39 / ADC 3</t>
+  </si>
+  <si>
+    <t>GPIO34 / ADC 6</t>
+  </si>
+  <si>
+    <t>GPIO35 / ADC 7</t>
+  </si>
+  <si>
+    <t>GPIO32 / ADC 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> forgot to document , recheck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GPIO's ESP32 </t>
+  </si>
+  <si>
+    <t>GPIO36 / ADC0 ( SS DAC)</t>
+  </si>
+  <si>
+    <t>GPIO5 (SS OUTBOARD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Input </t>
+  </si>
+  <si>
+    <t>Test is done with a analog light sensor</t>
+  </si>
+  <si>
+    <t>GPIO15 (SS ADC)</t>
+  </si>
+  <si>
+    <t>An UART module works</t>
+  </si>
+  <si>
+    <t>Sending and recieving string</t>
+  </si>
+  <si>
+    <t>Reading data SPI sensor</t>
+  </si>
+  <si>
+    <t>Reading an analog sensor</t>
+  </si>
+  <si>
+    <t>Reading data I2C sensor</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>No Heat ADC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Heat DAC </t>
+  </si>
+  <si>
+    <t>No Heat ESP32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Heat capacitors </t>
+  </si>
+  <si>
+    <t>No heat</t>
+  </si>
+  <si>
+    <t>Heat</t>
+  </si>
+  <si>
+    <t>3,3 V where 3,3V should be</t>
+  </si>
+  <si>
+    <t>5 V where 5V should be</t>
+  </si>
+  <si>
+    <t>3,29V  =  3,3V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test output </t>
+  </si>
+  <si>
+    <t>Test is done with a tempature sensor</t>
+  </si>
+  <si>
+    <t>ADC 1247</t>
+  </si>
+  <si>
+    <t>DAC 70504</t>
+  </si>
+  <si>
+    <t>Everything seems fine , little warm ADC but temp stays constant</t>
+  </si>
+  <si>
+    <t>GPIO2 (START ADC)</t>
+  </si>
+  <si>
+    <t>GPIO7 (Reset ADC)</t>
+  </si>
+  <si>
+    <t>GPIO8 (DRYD ADC)</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recieving data on </t>
+  </si>
+  <si>
+    <t>Recieved</t>
+  </si>
+  <si>
+    <t>Not received</t>
+  </si>
+  <si>
+    <t>1200 bps</t>
+  </si>
+  <si>
+    <t>2400 bps</t>
+  </si>
+  <si>
+    <t>4800 bps</t>
+  </si>
+  <si>
+    <t>9600 bps</t>
+  </si>
+  <si>
+    <t>19200 bps</t>
+  </si>
+  <si>
+    <t>38400 bps</t>
+  </si>
+  <si>
+    <t>57600 bps</t>
+  </si>
+  <si>
+    <t>115200 bps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date = 24/10/2020 . Maybey only input pins (39,34,35,32) ? Recheck datasheet  </t>
   </si>
 </sst>
 </file>
@@ -216,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -252,11 +319,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,6 +364,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -598,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,6 +700,7 @@
     <col min="2" max="2" width="94.7109375" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -619,55 +710,55 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -679,10 +770,10 @@
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -699,35 +790,35 @@
     </row>
     <row r="12" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -739,154 +830,165 @@
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>25</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="15"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="B28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
-    </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>16</v>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -894,99 +996,87 @@
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="B35" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B38" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>16</v>
+      <c r="B37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
+      <c r="A39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="16"/>
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -999,56 +1089,356 @@
     </row>
     <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B47" s="14"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="15"/>
+      <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50" s="8"/>
-      <c r="D50" s="9"/>
+        <v>28</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="B51" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+    </row>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A61" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="2"/>
+      <c r="B62" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="14"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A66" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="9"/>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="47.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64EBD11-B171-44A0-8D8D-17A9D6964104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988C26A-5AD3-4BF2-A707-6DBF519D57A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -85,9 +85,6 @@
     <t>GPIO35 / ADC 7</t>
   </si>
   <si>
-    <t>GPIO32 / ADC 9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> forgot to document , recheck</t>
   </si>
   <si>
@@ -157,18 +154,12 @@
     <t xml:space="preserve">Test output </t>
   </si>
   <si>
-    <t>Test is done with a tempature sensor</t>
-  </si>
-  <si>
     <t>ADC 1247</t>
   </si>
   <si>
     <t>DAC 70504</t>
   </si>
   <si>
-    <t>Everything seems fine , little warm ADC but temp stays constant</t>
-  </si>
-  <si>
     <t>GPIO2 (START ADC)</t>
   </si>
   <si>
@@ -215,13 +206,109 @@
   </si>
   <si>
     <t xml:space="preserve">date = 24/10/2020 . Maybey only input pins (39,34,35,32) ? Recheck datasheet  </t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Not approved</t>
+  </si>
+  <si>
+    <t>Recieved data on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recieved </t>
+  </si>
+  <si>
+    <t>Not recieved</t>
+  </si>
+  <si>
+    <t>Test is done with a tempature sensor (SCL and SDA are switched)</t>
+  </si>
+  <si>
+    <t>Standard mode  : 100 Kbit/s</t>
+  </si>
+  <si>
+    <t>Fast mode : 400 Kbit/s</t>
+  </si>
+  <si>
+    <t>Kbit/s = Khz</t>
+  </si>
+  <si>
+    <t>Measerment SCLK OUTBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Measerment SCL </t>
+  </si>
+  <si>
+    <t>I2C part 1</t>
+  </si>
+  <si>
+    <t>SPI_CLOCK_DIV2 = 80 MHZ</t>
+  </si>
+  <si>
+    <t>SPI_ClOCK_DIV8 = 20 MHZ</t>
+  </si>
+  <si>
+    <t>SPI_ClOCK_DIV32 =  5 MHZ</t>
+  </si>
+  <si>
+    <t>SPI_ClOCK_DIV128 =  1,25 MHZ</t>
+  </si>
+  <si>
+    <t>SPI OUTBOARD</t>
+  </si>
+  <si>
+    <t>SPI ADC 1247</t>
+  </si>
+  <si>
+    <t>SPI DAC 70504</t>
+  </si>
+  <si>
+    <t>Measerment SCLK  ADC 1247</t>
+  </si>
+  <si>
+    <t>Measerment  SCLK DAC 70504</t>
+  </si>
+  <si>
+    <t>Recieved Data on</t>
+  </si>
+  <si>
+    <t>Recieved data  on</t>
+  </si>
+  <si>
+    <t>GPIO32 / ADC 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> input only</t>
+  </si>
+  <si>
+    <t>Everything seems fine , ADC is a little warm but temp stays constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date = 25/10/2020 . Pin 33 went high in a previous test but not pin 32 ? Recheck pin . </t>
+  </si>
+  <si>
+    <r>
+      <t>data = 25/10/2020. Pin 36 is wrongly placed , should be an output ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> test should fail</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,8 +337,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,6 +373,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +474,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -690,17 +796,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="68" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="94.7109375" customWidth="1"/>
+    <col min="2" max="2" width="102.5703125" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
@@ -710,22 +818,22 @@
     </row>
     <row r="3" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>5</v>
@@ -735,7 +843,7 @@
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>5</v>
@@ -745,7 +853,7 @@
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>5</v>
@@ -755,7 +863,7 @@
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>5</v>
@@ -773,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -805,7 +913,7 @@
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>5</v>
@@ -815,7 +923,7 @@
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
@@ -833,7 +941,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -852,10 +960,10 @@
     </row>
     <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>11</v>
@@ -871,8 +979,8 @@
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="7"/>
-      <c r="E20" t="s">
-        <v>17</v>
+      <c r="E20" s="23" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -898,7 +1006,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -913,7 +1021,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -922,10 +1030,10 @@
     </row>
     <row r="27" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>11</v>
@@ -937,10 +1045,13 @@
     <row r="28" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
       <c r="B28" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
+      <c r="E28" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
@@ -951,8 +1062,8 @@
       <c r="D29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E29" t="s">
-        <v>6</v>
+      <c r="E29" s="23" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -964,6 +1075,9 @@
       <c r="D30" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E30" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
@@ -974,21 +1088,25 @@
       <c r="D31" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E31" s="23" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -996,7 +1114,7 @@
     <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
@@ -1004,7 +1122,7 @@
     <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
@@ -1012,7 +1130,7 @@
     <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="7"/>
@@ -1020,7 +1138,7 @@
     <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="7"/>
@@ -1036,16 +1154,20 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
-      <c r="B40" s="14"/>
+      <c r="B40" s="14" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
-      <c r="B41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
@@ -1068,7 +1190,7 @@
     <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
@@ -1076,7 +1198,7 @@
     <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
@@ -1118,7 +1240,7 @@
     <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>5</v>
@@ -1128,7 +1250,7 @@
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="7"/>
@@ -1144,7 +1266,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1172,7 +1294,7 @@
     <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
@@ -1180,7 +1302,7 @@
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
@@ -1207,7 +1329,7 @@
     </row>
     <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>3</v>
@@ -1222,7 +1344,7 @@
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
@@ -1249,7 +1371,7 @@
     </row>
     <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A66" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>3</v>
@@ -1264,7 +1386,7 @@
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="9"/>
@@ -1279,7 +1401,7 @@
       <c r="A69" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="2"/>
+      <c r="B69" s="14"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
     </row>
@@ -1291,15 +1413,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView zoomScale="58" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
   </cols>
@@ -1309,19 +1432,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
@@ -1329,7 +1452,7 @@
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -1337,7 +1460,7 @@
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -1345,7 +1468,7 @@
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
@@ -1353,7 +1476,7 @@
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -1361,7 +1484,7 @@
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
@@ -1369,7 +1492,7 @@
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1377,68 +1500,382 @@
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
     </row>
+    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
     <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="A13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
+      <c r="B14" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="20"/>
     </row>
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
+      <c r="B17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B26" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B32" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7"/>
+    </row>
+    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7"/>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7"/>
+    </row>
+    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7"/>
+    </row>
+    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+    </row>
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="22"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+    </row>
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+    </row>
+    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="B58" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B59" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="7"/>
+    </row>
+    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2988C26A-5AD3-4BF2-A707-6DBF519D57A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71FC39-120A-40C5-8D64-BC86CC3730D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -169,9 +169,6 @@
     <t>GPIO8 (DRYD ADC)</t>
   </si>
   <si>
-    <t>In progress</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recieving data on </t>
   </si>
   <si>
@@ -263,12 +260,6 @@
   </si>
   <si>
     <t>SPI DAC 70504</t>
-  </si>
-  <si>
-    <t>Measerment SCLK  ADC 1247</t>
-  </si>
-  <si>
-    <t>Measerment  SCLK DAC 70504</t>
   </si>
   <si>
     <t>Recieved Data on</t>
@@ -302,6 +293,21 @@
       </rPr>
       <t xml:space="preserve"> test should fail</t>
     </r>
+  </si>
+  <si>
+    <t>Connection possible with SPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Output current is </t>
+  </si>
+  <si>
+    <t>Measerment SCLK  to ADC 1247</t>
+  </si>
+  <si>
+    <t>Measerment  SCLK to DAC 70504</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> min is 480 ns or around 2 Mhz , should fail</t>
   </si>
 </sst>
 </file>
@@ -345,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,12 +379,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +436,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,7 +479,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -794,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1006,7 +1005,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1050,7 +1049,7 @@
       <c r="C28" s="4"/>
       <c r="D28" s="6"/>
       <c r="E28" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1063,7 +1062,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1076,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1089,19 +1088,18 @@
         <v>5</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
@@ -1154,19 +1152,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1266,7 +1264,7 @@
         <v>8</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -1344,66 +1342,73 @@
     <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="2"/>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="B65" s="14"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A67" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B67" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C67" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D67" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A67" s="2"/>
-      <c r="B67" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C67" s="8"/>
-      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="B68" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="2"/>
+      <c r="B69" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="9"/>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B69" s="14"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,10 +1418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1425,6 +1430,7 @@
     <col min="2" max="2" width="46.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
+    <col min="5" max="5" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1432,19 +1438,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
@@ -1452,7 +1458,7 @@
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -1460,7 +1466,7 @@
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -1468,7 +1474,7 @@
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
@@ -1476,7 +1482,7 @@
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -1484,7 +1490,7 @@
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
@@ -1492,7 +1498,7 @@
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1500,7 +1506,7 @@
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1526,22 +1532,22 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -1549,7 +1555,7 @@
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1563,19 +1569,19 @@
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1583,7 +1589,7 @@
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1599,7 +1605,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1607,43 +1613,43 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1651,133 +1657,139 @@
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B35" s="14"/>
     </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
-    </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C43" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
     </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
+      <c r="E47" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="14" t="s">
@@ -1787,43 +1799,43 @@
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -1831,40 +1843,40 @@
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>

--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA71FC39-120A-40C5-8D64-BC86CC3730D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AD474-AF04-4C44-A1DB-EB87CFF419E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
+    <workbookView xWindow="60" yWindow="345" windowWidth="13635" windowHeight="6000" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB v1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <t xml:space="preserve"> min is 480 ns or around 2 Mhz , should fail</t>
+  </si>
+  <si>
+    <t>date = 30/10/2020, Test completed , pin GPIO7 and GPIO8 needs to be changed on PCB</t>
+  </si>
+  <si>
+    <t>only 1,17 volt doenst turn of</t>
   </si>
 </sst>
 </file>
@@ -351,7 +357,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -379,6 +385,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,7 +448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -479,6 +491,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -793,16 +806,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="64" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="102.5703125" customWidth="1"/>
+    <col min="2" max="2" width="109.85546875" customWidth="1"/>
     <col min="3" max="3" width="32.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
     <col min="5" max="5" width="41.140625" customWidth="1"/>
@@ -1047,7 +1060,9 @@
         <v>18</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E28" s="23" t="s">
         <v>78</v>
       </c>
@@ -1096,58 +1111,71 @@
       <c r="B32" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7" t="s">
+      <c r="C32" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
+    </row>
+    <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="5"/>
+      <c r="C33" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="5"/>
+      <c r="C34" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D34" s="7"/>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="5"/>
+      <c r="C35" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D36" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A39" s="14" t="s">
         <v>8</v>
       </c>
@@ -1155,260 +1183,266 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="14" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
-      <c r="B42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="B42" s="24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="16"/>
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B44" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B47" s="14"/>
+      <c r="B46" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
+        <v>8</v>
+      </c>
       <c r="B48" s="14"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A49" s="15"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B50" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
-      <c r="B50" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="7"/>
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D51" s="7"/>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="B52" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>61</v>
-      </c>
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
+      <c r="A54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B56" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="D56" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B59" s="14"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
+      <c r="A60" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B60" s="14"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B62" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D62" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="11" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
     </row>
     <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
+      <c r="B64" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
+      <c r="B66" s="14"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A67" s="12" t="s">
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B68" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C68" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D68" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="2"/>
-      <c r="B68" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" s="8"/>
-      <c r="D68" s="9"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="9"/>
     </row>
     <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="2"/>
+      <c r="B70" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="9"/>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="14"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1421,7 +1455,7 @@
   <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+      <selection activeCell="AE60" sqref="AE58:AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AD474-AF04-4C44-A1DB-EB87CFF419E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D69E50-3268-4017-BADD-926011F1E651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="345" windowWidth="13635" windowHeight="6000" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB v1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>GPIO2 (START ADC)</t>
-  </si>
-  <si>
-    <t>GPIO7 (Reset ADC)</t>
   </si>
   <si>
     <t>GPIO8 (DRYD ADC)</t>
@@ -310,10 +307,25 @@
     <t xml:space="preserve"> min is 480 ns or around 2 Mhz , should fail</t>
   </si>
   <si>
-    <t>date = 30/10/2020, Test completed , pin GPIO7 and GPIO8 needs to be changed on PCB</t>
-  </si>
-  <si>
     <t>only 1,17 volt doenst turn of</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date = 30/10/2020, Test completed , pin GPIO7 and GPIO8  failed (check datasheet) </t>
+  </si>
+  <si>
+    <t>date = 30/10/2020, GPIO7 doesnt go high  (see 9.4.2)</t>
+  </si>
+  <si>
+    <t>GPIO7 (RESET ADC)</t>
+  </si>
+  <si>
+    <t>GPIO8 can be used as MOSI</t>
+  </si>
+  <si>
+    <t>GPIO7 can be used as MISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date = 30/10/2020, GPIO8 needs to go low after converting (see 9,4,4) </t>
   </si>
 </sst>
 </file>
@@ -448,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +504,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -507,6 +523,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>324928</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>193098</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>51175</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>221148</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28CE4222-ABB6-4C21-A9BC-28FF71513CFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18563539" y="10106154"/>
+          <a:ext cx="12690830" cy="3026661"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>264584</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>568327</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Afbeelding 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82695D17-D81B-4E3D-BDAF-473563187C8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18503195" y="2204861"/>
+          <a:ext cx="12650965" cy="7201905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -806,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
-  <dimension ref="A1:E71"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="35" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +1002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1018,7 +1127,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1064,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1077,7 +1186,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1090,7 +1199,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1103,13 +1212,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -1155,18 +1264,18 @@
       <c r="D36" s="7" t="s">
         <v>5</v>
       </c>
+      <c r="E36" s="23" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="C37" s="5"/>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="25" t="s">
         <v>5</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1180,19 +1289,19 @@
         <v>8</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1203,105 +1312,107 @@
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
-      <c r="B43" s="14"/>
-    </row>
-    <row r="44" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="B43" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="16"/>
+      <c r="B44" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B46" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D46" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="14"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="14"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B52" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
@@ -1309,49 +1420,51 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
-      <c r="B57" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
@@ -1359,94 +1472,109 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="6" t="s">
-        <v>12</v>
-      </c>
+    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
-      <c r="B63" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
-      <c r="B64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="7"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
+      <c r="B65" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" ht="21" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="6" t="s">
-        <v>12</v>
-      </c>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B68" s="14"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="2"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A70" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="9"/>
+    </row>
+    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C69" s="8"/>
-      <c r="D69" s="9"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="2"/>
-      <c r="B70" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C70" s="8"/>
-      <c r="D70" s="9"/>
-    </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="14" t="s">
+      <c r="C72" s="8"/>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1472,19 +1600,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="7"/>
@@ -1492,7 +1620,7 @@
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="7"/>
@@ -1500,7 +1628,7 @@
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="7"/>
@@ -1508,7 +1636,7 @@
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="7"/>
@@ -1516,7 +1644,7 @@
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="7"/>
@@ -1524,7 +1652,7 @@
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="7"/>
@@ -1532,7 +1660,7 @@
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="7"/>
@@ -1540,7 +1668,7 @@
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="7"/>
@@ -1566,22 +1694,22 @@
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="20"/>
@@ -1589,7 +1717,7 @@
     <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="7"/>
@@ -1603,19 +1731,19 @@
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="7"/>
@@ -1623,7 +1751,7 @@
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="7"/>
@@ -1639,7 +1767,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1647,43 +1775,43 @@
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="7"/>
     </row>
     <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
@@ -1691,40 +1819,40 @@
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="7"/>
     </row>
     <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
@@ -1737,43 +1865,43 @@
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
@@ -1784,45 +1912,45 @@
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C43" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B45" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B46" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1833,43 +1961,43 @@
     </row>
     <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
@@ -1877,40 +2005,40 @@
     <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D57" s="20" t="s">
         <v>59</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="7"/>
     </row>
     <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
     </row>
     <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>

--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D69E50-3268-4017-BADD-926011F1E651}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1865F-2DD7-45C2-9822-FBC9DFEED3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB v1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t xml:space="preserve">date = 30/10/2020, GPIO8 needs to go low after converting (see 9,4,4) </t>
+  </si>
+  <si>
+    <t>optional</t>
   </si>
 </sst>
 </file>
@@ -917,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="35" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A22" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,22 +1356,27 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C48" s="5"/>
+      <c r="C48" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A50" s="14" t="s">
         <v>8</v>
       </c>
@@ -1376,13 +1384,13 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="14"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="12" t="s">
         <v>1</v>
       </c>
@@ -1396,7 +1404,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="11" t="s">
         <v>27</v>
@@ -1406,7 +1414,7 @@
       </c>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="11" t="s">
         <v>24</v>
@@ -1414,13 +1422,13 @@
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A56" s="14" t="s">
         <v>8</v>
       </c>
@@ -1430,13 +1438,13 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A58" s="12" t="s">
         <v>2</v>
       </c>
@@ -1450,15 +1458,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="11" t="s">
         <v>24</v>
@@ -1466,13 +1477,13 @@
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="14" t="s">
         <v>8</v>
       </c>
@@ -1480,13 +1491,13 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="12" t="s">
         <v>39</v>
       </c>
@@ -1582,8 +1593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView zoomScale="58" workbookViewId="0">
-      <selection activeCell="AE60" sqref="AE58:AE60"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1638,7 +1649,9 @@
       <c r="B5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">

--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B1865F-2DD7-45C2-9822-FBC9DFEED3D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38E0B8-E751-4F1B-B1D6-D9BAE9824F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -330,12 +330,21 @@
   <si>
     <t>optional</t>
   </si>
+  <si>
+    <t>08/11/2020 =  Test completed  no errors</t>
+  </si>
+  <si>
+    <t>https://learn.sparkfun.com/tutorials/serial-communication/all</t>
+  </si>
+  <si>
+    <t>note : esp32 can't be programmend with TX pluged in</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +376,14 @@
     <font>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -460,10 +477,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -511,8 +529,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1591,16 +1611,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="63.140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="46.85546875" customWidth="1"/>
@@ -1625,7 +1645,9 @@
       <c r="B2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="7"/>
     </row>
     <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1633,7 +1655,9 @@
       <c r="B3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1641,7 +1665,9 @@
       <c r="B4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1659,7 +1685,9 @@
       <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1667,7 +1695,9 @@
       <c r="B7" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1675,7 +1705,9 @@
       <c r="B8" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1683,7 +1715,9 @@
       <c r="B9" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
@@ -1696,373 +1730,394 @@
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>94</v>
+      </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B12" s="2"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B15" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="20"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="B16" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="20"/>
     </row>
     <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
-      <c r="B17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="B17" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="B18" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="B19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
+      <c r="B19" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="B20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="7"/>
     </row>
     <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="A21" s="2"/>
+      <c r="B21" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="7"/>
     </row>
     <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>56</v>
+      <c r="A23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24" s="21" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B25" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B26" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
     </row>
+    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B28" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="7"/>
+    </row>
     <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
       <c r="B29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="21" t="s">
+    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
     </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="7"/>
+    </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="B35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="17" t="s">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A39" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B39" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="21" t="s">
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B39" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="7"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B40" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B41" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
-      <c r="E41" t="s">
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="11" t="s">
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D45" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
-      <c r="B44" s="21" t="s">
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B45" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B47" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
-      <c r="E47" s="23" t="s">
+    </row>
+    <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A49" s="14" t="s">
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B49" s="22"/>
-    </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="17" t="s">
+      <c r="B51" s="22"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B53" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D53" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
-      <c r="B52" s="21" t="s">
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B54" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B55" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="2"/>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D59" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="21" t="s">
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="21" t="s">
         <v>67</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B59" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
+    <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B62" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
+    </row>
+    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{99CB6C5F-6491-4F8B-896D-F4CAAACF7E1A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB38E0B8-E751-4F1B-B1D6-D9BAE9824F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBB3026-E099-48C4-88FF-F874E870D94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -224,9 +224,6 @@
   </si>
   <si>
     <t>Fast mode : 400 Kbit/s</t>
-  </si>
-  <si>
-    <t>Kbit/s = Khz</t>
   </si>
   <si>
     <t>Measerment SCLK OUTBOARD</t>
@@ -338,6 +335,15 @@
   </si>
   <si>
     <t>note : esp32 can't be programmend with TX pluged in</t>
+  </si>
+  <si>
+    <t>https://dcubestore.com/product/mcp9808-high-accuracy-digital-temperature-sensor-%C2%B10-25-from-40c-to-125c-i2c-mini-module/</t>
+  </si>
+  <si>
+    <t>Not the possibility for measerment I2C bus on avaible oscilloscope</t>
+  </si>
+  <si>
+    <t>10/11/2020 = MCP9808 temp sensor got 100 khz and 400 khz posibility , test completed</t>
   </si>
 </sst>
 </file>
@@ -940,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView topLeftCell="B47" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1025,7 +1031,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1150,7 +1156,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1196,7 +1202,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1209,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1222,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1235,13 +1241,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -1288,13 +1294,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="25" t="s">
@@ -1318,37 +1324,37 @@
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1377,7 +1383,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1486,7 +1492,7 @@
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
       <c r="E59" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1534,7 +1540,7 @@
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -1581,7 +1587,7 @@
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -1589,7 +1595,7 @@
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -1611,22 +1617,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="70" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="63.140625" customWidth="1"/>
+    <col min="2" max="2" width="120.140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="46.85546875" customWidth="1"/>
+    <col min="5" max="5" width="62" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="11" t="s">
         <v>46</v>
@@ -1650,7 +1656,7 @@
       </c>
       <c r="D2" s="7"/>
     </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="11" t="s">
         <v>47</v>
@@ -1660,7 +1666,7 @@
       </c>
       <c r="D3" s="7"/>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="11" t="s">
         <v>48</v>
@@ -1670,7 +1676,7 @@
       </c>
       <c r="D4" s="7"/>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="11" t="s">
         <v>49</v>
@@ -1680,7 +1686,7 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="11" t="s">
         <v>50</v>
@@ -1690,7 +1696,7 @@
       </c>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="B7" s="11" t="s">
         <v>51</v>
@@ -1700,7 +1706,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="11" t="s">
         <v>52</v>
@@ -1710,7 +1716,7 @@
       </c>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="11" t="s">
         <v>53</v>
@@ -1720,49 +1726,49 @@
       </c>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
@@ -1771,29 +1777,35 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E16" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="11" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E17" s="23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="18" t="s">
         <v>57</v>
@@ -1805,319 +1817,330 @@
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="5"/>
+      <c r="C20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="11" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="5" t="s">
+      <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B27" s="11" t="s">
-        <v>68</v>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="19" t="s">
+    <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D32" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="7"/>
-    </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B33" s="11" t="s">
-        <v>68</v>
+      <c r="A33" s="2"/>
+      <c r="B33" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="14"/>
-    </row>
-    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="5" t="s">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="7"/>
-    </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="11" t="s">
-        <v>68</v>
+      <c r="A41" s="2"/>
+      <c r="B41" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B42" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B43" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="7"/>
-      <c r="E43" t="s">
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="7"/>
+      <c r="E44" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
-      <c r="B46" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
+      <c r="B46" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>68</v>
+      <c r="A47" s="2"/>
+      <c r="B47" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B49" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="22"/>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A53" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B52" s="22"/>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A54" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D54" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="B54" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="7"/>
-    </row>
     <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B55" s="11" t="s">
-        <v>68</v>
+      <c r="A55" s="2"/>
+      <c r="B55" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B56" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B57" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>59</v>
-      </c>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
-      <c r="B60" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="7"/>
+      <c r="B60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="11" t="s">
-        <v>68</v>
+      <c r="A61" s="2"/>
+      <c r="B61" s="21" t="s">
+        <v>66</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B63" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="65" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B64" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{99CB6C5F-6491-4F8B-896D-F4CAAACF7E1A}"/>
+    <hyperlink ref="B24" r:id="rId2" xr:uid="{92ED3109-EA32-42A0-AD75-AF2A3DA47E80}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBB3026-E099-48C4-88FF-F874E870D94F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562CE0E-3D74-4A7B-8F10-CCA3BF7094DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -226,9 +226,6 @@
     <t>Fast mode : 400 Kbit/s</t>
   </si>
   <si>
-    <t>Measerment SCLK OUTBOARD</t>
-  </si>
-  <si>
     <t xml:space="preserve">Measerment SCL </t>
   </si>
   <si>
@@ -254,9 +251,6 @@
   </si>
   <si>
     <t>SPI DAC 70504</t>
-  </si>
-  <si>
-    <t>Recieved Data on</t>
   </si>
   <si>
     <t>Recieved data  on</t>
@@ -344,6 +338,75 @@
   </si>
   <si>
     <t>10/11/2020 = MCP9808 temp sensor got 100 khz and 400 khz posibility , test completed</t>
+  </si>
+  <si>
+    <t>Sending and recieving charaters</t>
+  </si>
+  <si>
+    <t>test done with psoc 4</t>
+  </si>
+  <si>
+    <t>24 MHZ</t>
+  </si>
+  <si>
+    <t>12 MHZ</t>
+  </si>
+  <si>
+    <t>6 MHZ</t>
+  </si>
+  <si>
+    <t>3 MHZ</t>
+  </si>
+  <si>
+    <t>ESP MISO recieves garbage , psoc  MOSI recieves data as normal</t>
+  </si>
+  <si>
+    <t>Recieved data</t>
+  </si>
+  <si>
+    <t>No data on PSOC4</t>
+  </si>
+  <si>
+    <t>Garbage on ESP32 and no data on PSOC4</t>
+  </si>
+  <si>
+    <t>1,5 MHZ</t>
+  </si>
+  <si>
+    <t>SPI half duplex on  (sending data to psoc 4)</t>
+  </si>
+  <si>
+    <t>SPI full duplex on (sending and recieving data psoc 4)</t>
+  </si>
+  <si>
+    <r>
+      <t>22/11/2020 = test completed ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only 12MHZ on MISO ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>22/11/2020 = test completed.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Note: bitwise &lt;&lt; 1 is needed while sending to psoc , loss LSB bit</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -946,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="107" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView topLeftCell="A40" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1094,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -1156,7 +1219,7 @@
     <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>5</v>
@@ -1202,7 +1265,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1215,7 +1278,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1228,7 +1291,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1241,13 +1304,13 @@
         <v>5</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>5</v>
@@ -1294,13 +1357,13 @@
         <v>5</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="25" t="s">
@@ -1324,37 +1387,37 @@
     <row r="40" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="16"/>
       <c r="B40" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A41" s="16"/>
       <c r="B41" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="16"/>
       <c r="B42" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A43" s="16"/>
       <c r="B43" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A44" s="16"/>
       <c r="B44" s="24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1383,7 +1446,7 @@
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1406,7 +1469,9 @@
       <c r="A50" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="14"/>
+      <c r="B50" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
@@ -1492,15 +1557,17 @@
       <c r="C59" s="5"/>
       <c r="D59" s="7"/>
       <c r="E59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C60" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1513,7 +1580,9 @@
       <c r="A62" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
@@ -1540,7 +1609,7 @@
     <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
@@ -1587,7 +1656,7 @@
     <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
@@ -1595,7 +1664,7 @@
     <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
@@ -1617,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:E66"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="70" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1629,7 +1698,7 @@
     <col min="2" max="2" width="120.140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
-    <col min="5" max="5" width="62" customWidth="1"/>
+    <col min="5" max="5" width="76.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1737,7 +1806,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -1745,7 +1814,7 @@
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -1753,7 +1822,7 @@
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
       <c r="B13" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1765,10 +1834,10 @@
     </row>
     <row r="15" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>55</v>
@@ -1785,7 +1854,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1796,7 +1865,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="23" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1848,13 +1917,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
       <c r="B24" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1862,276 +1931,338 @@
     </row>
     <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A26" s="17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>63</v>
+        <v>108</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
-      <c r="B27" s="21" t="s">
-        <v>66</v>
+      <c r="B27" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="32" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C32" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>59</v>
-      </c>
+    <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B31" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="21" t="s">
+      <c r="A33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B40" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A44" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B46" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B36" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="7"/>
-      <c r="E44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
-      <c r="B46" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
-      <c r="B47" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B49" s="11" t="s">
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B52" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B53" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="5"/>
-      <c r="D49" s="7"/>
-    </row>
-    <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B50" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B52" s="22"/>
-    </row>
-    <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A54" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B56" s="22"/>
+    </row>
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="B55" s="21" t="s">
+    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B60" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
-    </row>
-    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B56" s="11" t="s">
+      <c r="C60" s="5"/>
+      <c r="D60" s="7"/>
+    </row>
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B61" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="7"/>
-    </row>
-    <row r="57" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B57" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B58" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A60" s="2"/>
-      <c r="B60" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C60" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A61" s="2"/>
-      <c r="B61" s="21" t="s">
-        <v>66</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
     </row>
     <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B63" s="11" t="s">
+    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="7"/>
+    </row>
+    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B66" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="7"/>
+    </row>
+    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="7"/>
+    </row>
+    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B68" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="7"/>
-    </row>
-    <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B64" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="7"/>
-    </row>
-    <row r="66" spans="1:1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
+      <c r="C68" s="5"/>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/2020-2021/PCB/Test_Plan_PCB.xlsx
+++ b/2020-2021/PCB/Test_Plan_PCB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11800025\Documents\GitHub\intelliflow\2020-2021\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D562CE0E-3D74-4A7B-8F10-CCA3BF7094DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A09EAF87-6481-44FD-8953-B3E380CBD6BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8C0FA133-E7D3-49B5-A26D-63F79587637D}"/>
   </bookViews>
   <sheets>
     <sheet name="PCB v1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="115">
   <si>
     <t>Testplan PCB</t>
   </si>
@@ -322,9 +322,6 @@
     <t>optional</t>
   </si>
   <si>
-    <t>08/11/2020 =  Test completed  no errors</t>
-  </si>
-  <si>
     <t>https://learn.sparkfun.com/tutorials/serial-communication/all</t>
   </si>
   <si>
@@ -364,12 +361,6 @@
     <t>Recieved data</t>
   </si>
   <si>
-    <t>No data on PSOC4</t>
-  </si>
-  <si>
-    <t>Garbage on ESP32 and no data on PSOC4</t>
-  </si>
-  <si>
     <t>1,5 MHZ</t>
   </si>
   <si>
@@ -377,21 +368,6 @@
   </si>
   <si>
     <t>SPI full duplex on (sending and recieving data psoc 4)</t>
-  </si>
-  <si>
-    <r>
-      <t>22/11/2020 = test completed ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> only 12MHZ on MISO ?</t>
-    </r>
   </si>
   <si>
     <r>
@@ -407,6 +383,39 @@
       </rPr>
       <t xml:space="preserve"> Note: bitwise &lt;&lt; 1 is needed while sending to psoc , loss LSB bit</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Somtimes corruption in data </t>
+  </si>
+  <si>
+    <t>08/11/2020 =  Test completed with psoc4 no errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More corruption in data </t>
+  </si>
+  <si>
+    <r>
+      <t>22/11/2020 = test completed,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> only 12MHZ on MISO ?</t>
+    </r>
+  </si>
+  <si>
+    <t>27/11/2020 = Lost LSB fit is from the PSOC SPI block https://community.cypress.com/thread/26206?start=0&amp;tstart=0</t>
+  </si>
+  <si>
+    <t>27/11/2020 = changing external clock doenst have effect on SPI block psoc https://community.cypress.com/thread/26206?start=0&amp;tstart=0</t>
+  </si>
+  <si>
+    <t>cancelled due to hardware problems</t>
   </si>
 </sst>
 </file>
@@ -458,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -492,6 +501,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,7 +613,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1009,8 +1025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{435DD37B-4652-4CB1-BE49-B8C09510E9E7}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B79" sqref="B79"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="72" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,7 +1486,7 @@
         <v>8</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
@@ -1563,7 +1579,7 @@
     <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>5</v>
@@ -1581,7 +1597,7 @@
         <v>8</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
@@ -1606,26 +1622,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E65" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="11" t="s">
         <v>26</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
     </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A68" s="14" t="s">
         <v>8</v>
       </c>
@@ -1633,13 +1655,13 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
-    <row r="70" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A70" s="12" t="s">
         <v>40</v>
       </c>
@@ -1653,23 +1675,29 @@
         <v>12</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="11" t="s">
         <v>78</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="9"/>
-    </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="11" t="s">
         <v>79</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E72" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="14" t="s">
         <v>8</v>
       </c>
@@ -1686,16 +1714,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E40509FE-E360-49B3-BC2C-20962025613A}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="77" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="B20" zoomScale="60" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56.85546875" customWidth="1"/>
-    <col min="2" max="2" width="120.140625" customWidth="1"/>
+    <col min="2" max="2" width="158.28515625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="47.140625" customWidth="1"/>
     <col min="5" max="5" width="76.28515625" customWidth="1"/>
@@ -1806,23 +1834,23 @@
         <v>8</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A12" s="16"/>
-      <c r="B12" s="16" t="s">
-        <v>93</v>
+      <c r="B12" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="16"/>
-      <c r="B13" s="27" t="s">
-        <v>92</v>
+      <c r="B13" s="28" t="s">
+        <v>91</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1854,7 +1882,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="20"/>
       <c r="E16" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1865,7 +1893,7 @@
       <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1917,13 +1945,13 @@
         <v>8</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="16"/>
-      <c r="B24" s="27" t="s">
-        <v>94</v>
+      <c r="B24" s="28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -1934,7 +1962,7 @@
         <v>69</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>55</v>
@@ -1946,19 +1974,19 @@
     <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>5</v>
@@ -1967,7 +1995,7 @@
     </row>
     <row r="29" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>5</v>
@@ -1976,7 +2004,7 @@
     </row>
     <row r="30" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>5</v>
@@ -1985,284 +2013,343 @@
     </row>
     <row r="31" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
     </row>
     <row r="33" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>12</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="14" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="D36" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>106</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A37" s="2"/>
       <c r="B37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>98</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="23" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="23" t="s">
-        <v>103</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B39" s="11" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E39" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B40" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="7" t="s">
         <v>5</v>
       </c>
       <c r="E40" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
+      <c r="B41" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="14" t="s">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>110</v>
+      <c r="B43" s="14" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A46" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B46" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D46" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="21" t="s">
+    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B46" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="7"/>
+      <c r="E47" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B48" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="7"/>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="7"/>
+      <c r="E49" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
       <c r="B50" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C52" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D52" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
-      <c r="B51" s="21" t="s">
+    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B52" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B53" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="7"/>
+      <c r="E53" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B54" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="7"/>
-      <c r="E54" s="23" t="s">
+      <c r="E54" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B55" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B56" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A56" s="14" t="s">
+    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="22"/>
-    </row>
-    <row r="58" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="17" t="s">
+      <c r="B58" s="22"/>
+    </row>
+    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A60" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B60" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C60" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A59" s="2"/>
-      <c r="B59" s="21" t="s">
+    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A61" s="2"/>
+      <c r="B61" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="7"/>
-    </row>
-    <row r="60" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B60" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B61" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="7"/>
+      <c r="E61" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="7"/>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="7"/>
+      <c r="E63" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A64" s="2"/>
       <c r="B64" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="7"/>
+      <c r="E64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C66" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D66" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="21" t="s">
+    <row r="67" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="7"/>
-    </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B66" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B67" s="11" t="s">
-        <v>67</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="7"/>
-    </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E67" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B68" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="7"/>
-    </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
+      <c r="E68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B69" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="7"/>
+      <c r="E69" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B70" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="7"/>
+      <c r="E70" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>8</v>
       </c>
     </row>
